--- a/tests/integration/data/Renderer006-ForEach-Continue-stripped-table/template.xlsx
+++ b/tests/integration/data/Renderer006-ForEach-Continue-stripped-table/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer-2\tests\integration\data\Renderer005-ForEach-Continue-stripped-table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petricahorlescu/Documents/GIT/MillTechFX.xlsx-renderer/tests/integration/data/Renderer006-ForEach-Continue-stripped-table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC1CF5C-172C-4C39-A1F0-C4400445CA37}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D7A75C-87D9-8A45-845B-C5CAA653D9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24580" windowHeight="14620" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="24580" windowHeight="14620" xr2:uid="{50CB0F02-73D8-432D-BA19-0D33B1FE1838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>My Open Source Projects (v2)</t>
+  </si>
+  <si>
+    <t>#! END_ROW true</t>
   </si>
 </sst>
 </file>
@@ -549,25 +552,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3674A8A-13E9-4EDB-B294-D1FF8F18362C}">
-  <dimension ref="B1:I9"/>
+  <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.08984375" customWidth="1"/>
-    <col min="3" max="4" width="7.6328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="3" max="4" width="7.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.90625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="60.08984375" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" customWidth="1"/>
-    <col min="9" max="10" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="60.1640625" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" customWidth="1"/>
+    <col min="9" max="10" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:10" s="8" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>19</v>
       </c>
@@ -582,7 +585,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -604,8 +607,11 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -627,8 +633,11 @@
       <c r="I3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
@@ -650,15 +659,18 @@
       <c r="I4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="I5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
@@ -668,17 +680,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E8" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
